--- a/Testcase_Deploy.xlsx
+++ b/Testcase_Deploy.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18722"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PROJECTKIT\Sprint_11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Gitrepo\demoGit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="62E9AACDCB2737D334914A7E5B988C398F856D05" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase_Deploy" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
   <si>
     <t>Thời gian</t>
   </si>
@@ -69,69 +68,6 @@
   </si>
   <si>
     <t>Note</t>
-  </si>
-  <si>
-    <t>Kiểm tra hoạt động chức năng "Đăng kí"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đã truy cập vào trang web
-"https://projectkit.net/" </t>
-  </si>
-  <si>
-    <t>B1: Tại màn hình "Trang chủ" của hệ thống 
-nhấp vào nút "Đăng kí"
-B2: Tại màn hình Đăng kí: nhập thông tin tài khoản
-B3: Nhấp vào nút "Đăng kí"</t>
-  </si>
-  <si>
-    <t>B1: Hệ thống chuyển qua trang "Đăng kí"
-B2: Nhập thành công thông tin tài khoản
-B3: Đăng kí thành công, hệ thống chuyển trang thông báo đăng kí thành công và yêu cầu xác nhận bằng qua email đã đăng kí</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hệ thống gửi
-mail xác nhận tới tài khoản email đã đăng kí </t>
-  </si>
-  <si>
-    <t>Kiểm tra hoạt động chức năng "Đăng nhập"</t>
-  </si>
-  <si>
-    <t>1. Đã truy cập vào trang web "https://projectkit.net/" 
-2. Tài khoản đăng nhập đã được tạo</t>
-  </si>
-  <si>
-    <t>B1: Nhấp vào nút "Đăng nhập" trên màn hình "Trang chủ" của hệ thống
-B2: Nhập thông tin tài khoản
-B3: Nhấp vào nút "Đăng nhập" trên màn hình Đăng nhập</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Hệ thống chuyển qua trang "Đăng nhập"
-B2: Nhập thành công thông tin
-B3: Đăng nhập thành công, hệ thống quay lại màn hình "Trang chủ" </t>
-  </si>
-  <si>
-    <t>Kiểm tra hoạt động chức năng "Lấy lại mật khẩu"</t>
-  </si>
-  <si>
-    <t>1. Đã truy cập vào trang web "https://projectkit.net/" 
-2. Tài khoản đã được tạo</t>
-  </si>
-  <si>
-    <t>B1: Nhập vào nút "Đăng nhập" trên màn 
-hình "Trang chủ" 
-B2: Nhấp vào hyperlink "Đặt lại mật khẩu" 
-trên màn hình "Đăng nhập"
-B3: Nhập email được dùng để tạo tài khoản vào trường Email trên màn hình "Quên mật khẩu"
-B4: Nhấp vào nút "Gửi đi"</t>
-  </si>
-  <si>
-    <t>B1: Hệ thống chuyển qua màn hình "Đăng nhập"
-B2: Hệ thống chuyển qua màn hình "Quên mật khẩu"
-B3: Nhập thành công tên email
-B4: Hệ thống chuyển trang thông báo gửi mail yêu cầu người dùng xác nhận để hoàn thành thao tác đặt lại mật khẩu</t>
-  </si>
-  <si>
-    <t>Hệ thống gửi mail xác nhận tới tài khoản email đã được nhập ở B3 với thời gian và nội dung phù hợp</t>
   </si>
   <si>
     <t>Kiểm tra các hoạt động mô đun "Dự án"</t>
@@ -324,8 +260,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -559,39 +495,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -868,14 +804,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" style="6" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" customWidth="1"/>
@@ -889,7 +825,7 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F6" s="31" t="s">
         <v>0</v>
       </c>
@@ -903,29 +839,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="1:9" ht="29.25" customHeight="1">
+    <row r="10" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="36" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="34" t="s">
@@ -943,14 +879,14 @@
       <c r="G10" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="32" t="s">
+      <c r="H10" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="33"/>
-    </row>
-    <row r="11" spans="1:9" ht="18" customHeight="1">
+      <c r="I10" s="41"/>
+    </row>
+    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="35"/>
-      <c r="B11" s="41"/>
+      <c r="B11" s="37"/>
       <c r="C11" s="35"/>
       <c r="D11" s="35"/>
       <c r="E11" s="35"/>
@@ -963,359 +899,331 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="105">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="11"/>
-      <c r="C12" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>18</v>
-      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:9" ht="75">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
-      <c r="C13" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>22</v>
-      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
       <c r="G13" s="18"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
     </row>
-    <row r="14" spans="1:9" ht="135">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="14"/>
-      <c r="C14" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>27</v>
-      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
       <c r="H14" s="11"/>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-    </row>
-    <row r="16" spans="1:9" ht="45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+    </row>
+    <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="B16" s="26"/>
       <c r="C16" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>16</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
     </row>
-    <row r="17" spans="1:9" ht="75">
+    <row r="17" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
       <c r="C17" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="38"/>
+        <v>19</v>
+      </c>
+      <c r="D17" s="39"/>
       <c r="E17" s="16" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="26"/>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="1:9" ht="90">
+    <row r="18" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="14"/>
       <c r="C18" s="29" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="26"/>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="1:9" ht="30">
+    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
       <c r="C19" s="29" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="26"/>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" spans="1:9" ht="60">
+    <row r="20" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="14"/>
       <c r="C20" s="15" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="26"/>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" spans="1:9" ht="45">
+    <row r="21" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="14"/>
       <c r="C21" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="38" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>16</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G21" s="14"/>
       <c r="H21" s="26"/>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="1:9" ht="30">
+    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="14"/>
       <c r="C22" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="38"/>
+        <v>36</v>
+      </c>
+      <c r="D22" s="39"/>
       <c r="E22" s="16" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="26"/>
       <c r="I22" s="14"/>
     </row>
-    <row r="23" spans="1:9" ht="30">
+    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="14"/>
       <c r="C23" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="38"/>
+        <v>39</v>
+      </c>
+      <c r="D23" s="39"/>
       <c r="E23" s="16" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="G23" s="14"/>
       <c r="H23" s="26"/>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="1:9" ht="30">
+    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="14"/>
       <c r="C24" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="38"/>
+        <v>42</v>
+      </c>
+      <c r="D24" s="39"/>
       <c r="E24" s="16" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="26"/>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-    </row>
-    <row r="26" spans="1:9" ht="60">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+    </row>
+    <row r="26" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="14"/>
       <c r="C26" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="36" t="s">
-        <v>30</v>
+        <v>46</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>16</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
     </row>
-    <row r="27" spans="1:9" ht="30">
+    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="14"/>
       <c r="C27" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="36"/>
+        <v>49</v>
+      </c>
+      <c r="D27" s="38"/>
       <c r="E27" s="16" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="1:9" ht="30">
+    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="14"/>
       <c r="C28" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="36"/>
+        <v>52</v>
+      </c>
+      <c r="D28" s="38"/>
       <c r="E28" s="16" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
     </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-    </row>
-    <row r="30" spans="1:9" ht="45">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+    </row>
+    <row r="30" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="14"/>
       <c r="C30" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" s="36" t="s">
-        <v>30</v>
+        <v>56</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>16</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
     </row>
-    <row r="31" spans="1:9" ht="45">
+    <row r="31" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="14"/>
       <c r="C31" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="36"/>
+        <v>59</v>
+      </c>
+      <c r="D31" s="38"/>
       <c r="E31" s="16" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="3"/>
       <c r="C32" s="22"/>
@@ -1326,7 +1234,7 @@
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="2"/>
       <c r="C33" s="23"/>
@@ -1337,7 +1245,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="2"/>
       <c r="C34" s="23"/>
@@ -1348,7 +1256,7 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="2"/>
       <c r="C35" s="23"/>
@@ -1359,7 +1267,7 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="2"/>
       <c r="C36" s="23"/>
@@ -1370,7 +1278,7 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="2"/>
       <c r="C37" s="23"/>
@@ -1381,7 +1289,7 @@
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="2"/>
       <c r="C38" s="23"/>
@@ -1392,7 +1300,7 @@
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="2"/>
       <c r="C39" s="23"/>
@@ -1403,7 +1311,7 @@
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="2"/>
       <c r="C40" s="23"/>
@@ -1414,7 +1322,7 @@
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="2"/>
       <c r="C41" s="23"/>
@@ -1425,7 +1333,7 @@
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="2"/>
       <c r="C42" s="23"/>
@@ -1436,7 +1344,7 @@
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="2"/>
       <c r="C43" s="23"/>
@@ -1447,7 +1355,7 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="2"/>
       <c r="C44" s="23"/>
@@ -1458,7 +1366,7 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="2"/>
       <c r="C45" s="23"/>
@@ -1469,7 +1377,7 @@
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="2"/>
       <c r="C46" s="23"/>
@@ -1480,7 +1388,7 @@
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="2"/>
       <c r="C47" s="23"/>
@@ -1491,7 +1399,7 @@
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="2"/>
       <c r="C48" s="23"/>
@@ -1502,7 +1410,7 @@
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="2"/>
       <c r="C49" s="23"/>
@@ -1513,7 +1421,7 @@
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="2"/>
       <c r="C50" s="23"/>
@@ -1524,7 +1432,7 @@
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" s="2"/>
       <c r="C51" s="23"/>
@@ -1535,28 +1443,28 @@
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D21:D24"/>
     <mergeCell ref="A15:I15"/>
     <mergeCell ref="A25:I25"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D21:D24"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="F10:F11"/>
@@ -1564,7 +1472,7 @@
     <mergeCell ref="D10:D11"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H12:H14 H30:H31 H26:H28 H16:H24" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H12:H14 H30:H31 H26:H28 H16:H24">
       <formula1>$B$54:$B$55</formula1>
     </dataValidation>
   </dataValidations>

--- a/Testcase_Deploy.xlsx
+++ b/Testcase_Deploy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase_Deploy" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Thời gian</t>
   </si>
@@ -73,123 +73,8 @@
     <t>Kiểm tra các hoạt động mô đun "Dự án"</t>
   </si>
   <si>
-    <t>Kiểm tra hoạt động màn hình "Dự án"</t>
-  </si>
-  <si>
     <t xml:space="preserve">Đã đăng nhập vào hệ thống
 </t>
-  </si>
-  <si>
-    <t>Nhấp vào mô đun "Dự án"</t>
-  </si>
-  <si>
-    <t>Hiển thị màn hình "Dự án" với màn hình 
-mặc định là tab người dùng thao tác lần cuối cùng</t>
-  </si>
-  <si>
-    <t>Kiểm tra chức năng import dữ liệu</t>
-  </si>
-  <si>
-    <t>B1: Nhấp vào màn hình "Dự án"
-B2: Nhấp vào nút "Mở tệp dữ liệu Projectkit(Ctrl+O)"
-B3: Chọn tệp(xml)
-B4: Nhấp vào nút "Open"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Hiển thị màn hình "Dự án"
-B2: Hiển thị hộp thoại chọn tệp 
-B3: Chọn tệp thành công
-B4: Mở thành công tệp dữ liệu đồng thời đóng hộp thoại chọn tệp </t>
-  </si>
-  <si>
-    <t>Kiểm tra chức năng xuất dữ liệu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Đã đăng nhập vào hệ thống
-2. Tồn tại ít nhất một dự án đã được tạo
-</t>
-  </si>
-  <si>
-    <t>B1: Nhấp vào màn hình "Dự án"
-B2: Nhấp chọn nút "Menu"
-B3: Nhấp chọn "Xuất" từ danh sách thả xuống
-B4: Nhập tên file
-B5: Nhấp vào nút "Save"</t>
-  </si>
-  <si>
-    <t>Xuất thành công tệp dữ liệu. Hiển thị 
-hộp thoại thông báo xuất thành công dữ liệu</t>
-  </si>
-  <si>
-    <t>Kiểm tra hoạt động chức năng thông báo</t>
-  </si>
-  <si>
-    <t>B1: Nhấp vào màn hình "Dự án"
-B2: Nhấp vào nút Thông báo</t>
-  </si>
-  <si>
-    <t>Hiển thị các thông báo từ các tài khoản 
-liên quan đến người dùng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiểm tra hoạt động của chức năng mở và load dữ 
-liệu các dự án </t>
-  </si>
-  <si>
-    <t>1. Đã đăng nhập vào hệ thống
-2. Tồn tại ít nhất 2 dự án đã được tạo</t>
-  </si>
-  <si>
-    <t>B1: Nhấp vào màn hình "Dự án"
-B2: Nhấp vào nút lựa chọn danh sách dự án
-B3: Nhấp chọn một dự án bất kì</t>
-  </si>
-  <si>
-    <t>Trên màn hình hiển thị dữ liệu của dự án 
-vừa được mở</t>
-  </si>
-  <si>
-    <t>Kiểm tra hoạt động tab "Sơ đồ Nguồn lực"</t>
-  </si>
-  <si>
-    <t>B1: Nhấp vào màn hình "Dự án"
-B2: Nhấp vào tab "Sơ đồ Nguồn lực"</t>
-  </si>
-  <si>
-    <t>Hiển thị màn hình "Sơ đồ Nguồn lực" với 
-dữ liệu của dự án đang thao tác</t>
-  </si>
-  <si>
-    <t>Kiểm tra hoạt động tab "Bảng công việc"</t>
-  </si>
-  <si>
-    <t>B1: Nhấp vào màn hình "Dự án"
-B2: Nhấp vào tab "Bảng công việc"</t>
-  </si>
-  <si>
-    <t>Hiển thị màn hình "Bảng công việc" với dữ liệu của dự án đang thao tác</t>
-  </si>
-  <si>
-    <t>Kiểm tra hoạt động tab "Lịch"</t>
-  </si>
-  <si>
-    <t>B1: Nhấp vào màn hình "Dự án"
-B2: Nhấp vào tab "Lịch"</t>
-  </si>
-  <si>
-    <t>Hiển thị màn hình "Lich" với dữ liệu của 
-dự án đang thao tác</t>
-  </si>
-  <si>
-    <t>Kiểm tra hoạt động tab "Sơ đồ mạng"</t>
-  </si>
-  <si>
-    <t>B1: Nhấp vào màn hình "Dự án"
-B2: Nhấp vào tab "Sơ đồ mạng"</t>
-  </si>
-  <si>
-    <t>Hiển thị màn hình "Sơ đồ mạng" với dữ 
-liệu của dự án đang thao tác</t>
   </si>
   <si>
     <t>Kiểm tra các hoạt động mô đun "Trang cá nhân"</t>
@@ -807,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -945,172 +830,108 @@
       <c r="H15" s="33"/>
       <c r="I15" s="33"/>
     </row>
-    <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="B16" s="26"/>
-      <c r="C16" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>18</v>
-      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="28"/>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
     </row>
-    <row r="17" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
-      <c r="C17" s="29" t="s">
-        <v>19</v>
-      </c>
+      <c r="C17" s="29"/>
       <c r="D17" s="39"/>
-      <c r="E17" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>21</v>
-      </c>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
       <c r="G17" s="14"/>
       <c r="H17" s="26"/>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="14"/>
-      <c r="C18" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>25</v>
-      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="17"/>
       <c r="G18" s="14"/>
       <c r="H18" s="26"/>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
-      <c r="C19" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>28</v>
-      </c>
+      <c r="C19" s="29"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
       <c r="G19" s="14"/>
       <c r="H19" s="26"/>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="14"/>
-      <c r="C20" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>32</v>
-      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="19"/>
       <c r="G20" s="14"/>
       <c r="H20" s="26"/>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="14"/>
-      <c r="C21" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>35</v>
-      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
       <c r="G21" s="14"/>
       <c r="H21" s="26"/>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="14"/>
-      <c r="C22" s="29" t="s">
-        <v>36</v>
-      </c>
+      <c r="C22" s="29"/>
       <c r="D22" s="39"/>
-      <c r="E22" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>38</v>
-      </c>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
       <c r="G22" s="14"/>
       <c r="H22" s="26"/>
       <c r="I22" s="14"/>
     </row>
-    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="14"/>
-      <c r="C23" s="29" t="s">
-        <v>39</v>
-      </c>
+      <c r="C23" s="29"/>
       <c r="D23" s="39"/>
-      <c r="E23" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>41</v>
-      </c>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
       <c r="G23" s="14"/>
       <c r="H23" s="26"/>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="14"/>
-      <c r="C24" s="29" t="s">
-        <v>42</v>
-      </c>
+      <c r="C24" s="29"/>
       <c r="D24" s="39"/>
-      <c r="E24" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>44</v>
-      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
       <c r="G24" s="14"/>
       <c r="H24" s="26"/>
       <c r="I24" s="14"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -1125,16 +946,16 @@
       <c r="A26" s="13"/>
       <c r="B26" s="14"/>
       <c r="C26" s="29" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
@@ -1144,14 +965,14 @@
       <c r="A27" s="13"/>
       <c r="B27" s="14"/>
       <c r="C27" s="29" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="D27" s="38"/>
       <c r="E27" s="16" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
@@ -1161,14 +982,14 @@
       <c r="A28" s="13"/>
       <c r="B28" s="14"/>
       <c r="C28" s="29" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="D28" s="38"/>
       <c r="E28" s="16" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
@@ -1176,7 +997,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -1191,16 +1012,16 @@
       <c r="A30" s="13"/>
       <c r="B30" s="14"/>
       <c r="C30" s="29" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="D30" s="38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
@@ -1210,14 +1031,14 @@
       <c r="A31" s="13"/>
       <c r="B31" s="14"/>
       <c r="C31" s="29" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="D31" s="38"/>
       <c r="E31" s="16" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
@@ -1445,12 +1266,12 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
